--- a/data/house.xlsx
+++ b/data/house.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVC\Formation\Python\DataScience\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="house - Copie" sheetId="1" r:id="rId1"/>
+    <sheet name="house" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +539,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
